--- a/Base/src/main/resources/templates/visualServices.xlsx
+++ b/Base/src/main/resources/templates/visualServices.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aneeshkumar\Desktop\FamstackReporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Workspace-famstack\bops\Base\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="VS team - Namratta" sheetId="1" r:id="rId1"/>
+    <sheet name="Emp Utilization" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"># of Users </t>
   </si>
@@ -64,13 +65,16 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +86,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -103,8 +108,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +136,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,11 +180,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -194,6 +224,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,6 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -700,4 +734,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>